--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,15 +102,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非100%写备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PMP编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部署uc  和测试项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署home应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查测试uc https请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常服务器搭建jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins部署所有项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理日常服务器搭建jenkins文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +536,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -553,7 +573,7 @@
         <v>43024</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -562,22 +582,75 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="E3" s="2"/>
+      <c r="A3" s="1">
+        <v>43025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>413</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>431</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>43028</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="E7" s="2"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="E8" s="2"/>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>整理日常服务器搭建jenkins文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署测试企业通知接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助文光设计sso白名单登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -656,7 +664,23 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>协助文光设计sso白名单登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理熟悉uc代码，优化整理自动化部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
@@ -679,6 +683,17 @@
         <v>15</v>
       </c>
       <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>整理熟悉uc代码，优化整理自动化部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理熟悉uc业务逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -695,6 +699,14 @@
       </c>
       <c r="E11" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>整理熟悉uc业务逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试钉钉上传文件接口，熟悉钉钉api</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -707,6 +711,17 @@
       </c>
       <c r="B12" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>测试钉钉上传文件接口，熟悉钉钉api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画uc 相关uml图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -722,6 +726,17 @@
       </c>
       <c r="E13" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>画uc 相关uml图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善uc相关用例图时序图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -737,6 +741,17 @@
       </c>
       <c r="E14" s="2">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>完善uc相关用例图时序图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心2.0架构学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -751,6 +755,17 @@
         <v>20</v>
       </c>
       <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
     </row>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>用户中心2.0架构学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行用户中心2.0架构，熟悉uc2.0业务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -766,6 +770,17 @@
         <v>21</v>
       </c>
       <c r="E16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>运行用户中心2.0架构，熟悉uc2.0业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷2.0需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -782,6 +786,14 @@
       </c>
       <c r="E17" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43041</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/李会月日报.xlsx
+++ b/交流管理/项目日报/李会月日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>云谷2.0需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷2.0需求分析细化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -796,6 +800,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43042</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -808,7 +823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
